--- a/ResultsByUHF20200626/DailyProjections_citywide20200626.xlsx
+++ b/ResultsByUHF20200626/DailyProjections_citywide20200626.xlsx
@@ -458,22 +458,22 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>328 (150, 622)</t>
+          <t>316 (142, 640)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>58 (33, 116)</t>
+          <t>53 (32, 107)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>19 (8, 40)</t>
+          <t>16 (5, 40)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>16 (5, 35)</t>
+          <t>10 (1, 29)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -488,22 +488,22 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0 (0, 2)</t>
+          <t>0 (0, 1)</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>75 (39, 113)</t>
+          <t>86 (42, 124)</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>62 (22, 98)</t>
+          <t>66 (25, 108)</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0 (0, 0)</t>
+          <t>0 (0, 1)</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -535,22 +535,22 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>308 (136, 630)</t>
+          <t>301 (128, 638)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>48 (22, 105)</t>
+          <t>47 (23, 90)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>19 (7, 35)</t>
+          <t>14 (3, 34)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>13 (3, 32)</t>
+          <t>10 (0, 24)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -570,12 +570,12 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>76 (34, 111)</t>
+          <t>84 (40, 121)</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>61 (21, 95)</t>
+          <t>64 (24, 104)</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -612,22 +612,22 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>279 (116, 623)</t>
+          <t>285 (104, 634)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>39 (8, 81)</t>
+          <t>37 (7, 72)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>17 (5, 35)</t>
+          <t>11 (2, 32)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>11 (1, 27)</t>
+          <t>9 (0, 23)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -647,12 +647,12 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>74 (30, 111)</t>
+          <t>80 (36, 117)</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>55 (21, 92)</t>
+          <t>59 (24, 103)</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -689,22 +689,22 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>260 (97, 617)</t>
+          <t>268 (86, 635)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>27 (5, 69)</t>
+          <t>24 (5, 60)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>13 (3, 33)</t>
+          <t>10 (0, 30)</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>9 (0, 23)</t>
+          <t>7 (0, 22)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -724,12 +724,12 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>73 (28, 108)</t>
+          <t>80 (36, 114)</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>52 (21, 91)</t>
+          <t>56 (23, 103)</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -766,22 +766,22 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>242 (77, 608)</t>
+          <t>250 (70, 628)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>14 (4, 56)</t>
+          <t>13 (3, 59)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>10 (1, 31)</t>
+          <t>8 (0, 25)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>8 (0, 23)</t>
+          <t>2 (0, 19)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -801,12 +801,12 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>73 (27, 105)</t>
+          <t>79 (34, 111)</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>50 (20, 90)</t>
+          <t>54 (21, 100)</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -843,22 +843,22 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>229 (61, 606)</t>
+          <t>234 (58, 625)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>9 (2, 45)</t>
+          <t>7 (2, 47)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>9 (0, 26)</t>
+          <t>5 (0, 22)</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>5 (0, 23)</t>
+          <t>2 (0, 17)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -878,12 +878,12 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>70 (25, 103)</t>
+          <t>76 (33, 108)</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>47 (19, 86)</t>
+          <t>50 (19, 99)</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -920,22 +920,22 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>219 (45, 598)</t>
+          <t>215 (46, 617)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6 (1, 39)</t>
+          <t>6 (2, 39)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>8 (0, 24)</t>
+          <t>2 (0, 19)</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>4 (0, 22)</t>
+          <t>0 (0, 16)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -955,12 +955,12 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>65 (24, 101)</t>
+          <t>72 (32, 106)</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>45 (18, 84)</t>
+          <t>49 (19, 96)</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -997,22 +997,22 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>195 (36, 590)</t>
+          <t>198 (27, 618)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>6 (1, 37)</t>
+          <t>5 (0, 33)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>5 (0, 23)</t>
+          <t>1 (0, 19)</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2 (0, 21)</t>
+          <t>0 (0, 14)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1032,12 +1032,12 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>60 (21, 95)</t>
+          <t>64 (30, 105)</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>41 (18, 84)</t>
+          <t>43 (19, 91)</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1074,22 +1074,22 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>179 (24, 589)</t>
+          <t>183 (20, 606)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>6 (1, 35)</t>
+          <t>5 (0, 30)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>3 (0, 23)</t>
+          <t>0 (0, 17)</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0 (0, 19)</t>
+          <t>0 (0, 11)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1109,12 +1109,12 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>58 (21, 92)</t>
+          <t>63 (28, 101)</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>36 (17, 80)</t>
+          <t>40 (18, 87)</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1151,22 +1151,22 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>167 (19, 575)</t>
+          <t>169 (15, 598)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3 (0, 32)</t>
+          <t>4 (0, 28)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2 (0, 22)</t>
+          <t>0 (0, 15)</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0 (0, 18)</t>
+          <t>0 (0, 10)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1186,12 +1186,12 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>53 (21, 90)</t>
+          <t>58 (26, 99)</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>31 (15, 77)</t>
+          <t>39 (17, 81)</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1228,22 +1228,22 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>159 (15, 570)</t>
+          <t>149 (13, 589)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3 (0, 30)</t>
+          <t>3 (0, 27)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0 (0, 20)</t>
+          <t>0 (0, 12)</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0 (0, 16)</t>
+          <t>0 (0, 9)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1263,12 +1263,12 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>48 (21, 88)</t>
+          <t>50 (24, 97)</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>30 (15, 72)</t>
+          <t>37 (15, 76)</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1305,22 +1305,22 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>148 (12, 565)</t>
+          <t>137 (11, 585)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2 (0, 29)</t>
+          <t>3 (0, 26)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0 (0, 18)</t>
+          <t>0 (0, 12)</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>0 (0, 14)</t>
+          <t>0 (0, 7)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1340,12 +1340,12 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>44 (20, 86)</t>
+          <t>47 (20, 89)</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>29 (13, 68)</t>
+          <t>35 (13, 75)</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1382,22 +1382,22 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>141 (10, 568)</t>
+          <t>129 (8, 586)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1 (0, 27)</t>
+          <t>2 (0, 24)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0 (0, 17)</t>
+          <t>0 (0, 9)</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0 (0, 12)</t>
+          <t>0 (0, 6)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1417,12 +1417,12 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>40 (18, 83)</t>
+          <t>45 (20, 86)</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>26 (12, 66)</t>
+          <t>33 (13, 69)</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1459,22 +1459,22 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>125 (10, 561)</t>
+          <t>116 (8, 583)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1 (0, 24)</t>
+          <t>0 (0, 24)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0 (0, 15)</t>
+          <t>0 (0, 8)</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>0 (0, 11)</t>
+          <t>0 (0, 6)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1494,12 +1494,12 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>39 (16, 80)</t>
+          <t>43 (17, 80)</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>27 (11, 63)</t>
+          <t>28 (11, 67)</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1536,52 +1536,52 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>577 (283, 1084)</t>
+          <t>585 (310, 1061)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>62 (39, 122)</t>
+          <t>61 (34, 117)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>57 (32, 102)</t>
+          <t>48 (26, 80)</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>45 (24, 82)</t>
+          <t>38 (20, 71)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
+          <t>0 (0, 0)</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>0 (0, 0)</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>2 (0, 3)</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>93 (54, 146)</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>80 (33, 127)</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
           <t>0 (0, 1)</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>0 (0, 0)</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>1 (0, 4)</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>110 (64, 169)</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>87 (49, 149)</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>0 (0, 2)</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1613,52 +1613,52 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>525 (249, 1055)</t>
+          <t>522 (264, 1040)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>51 (31, 104)</t>
+          <t>50 (26, 100)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>53 (27, 92)</t>
+          <t>45 (23, 77)</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>41 (17, 78)</t>
+          <t>36 (17, 67)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
+          <t>0 (0, 0)</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>0 (0, 0)</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>1 (0, 3)</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>94 (54, 144)</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>74 (32, 124)</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
           <t>0 (0, 1)</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>0 (0, 0)</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>0 (0, 3)</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>110 (64, 169)</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>86 (49, 150)</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>0 (0, 2)</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1690,22 +1690,22 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>483 (225, 1059)</t>
+          <t>485 (235, 1018)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>43 (21, 88)</t>
+          <t>41 (15, 86)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>47 (25, 86)</t>
+          <t>41 (22, 76)</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>41 (15, 72)</t>
+          <t>36 (16, 61)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1725,22 +1725,22 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>110 (63, 168)</t>
+          <t>90 (52, 140)</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>82 (49, 149)</t>
+          <t>73 (30, 119)</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>0 (0, 2)</t>
+          <t>0 (0, 1)</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>0 (0, 2)</t>
+          <t>0 (0, 1)</t>
         </is>
       </c>
     </row>
@@ -1767,22 +1767,22 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>435 (192, 1040)</t>
+          <t>445 (200, 1005)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>39 (11, 73)</t>
+          <t>32 (7, 74)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>43 (21, 82)</t>
+          <t>38 (18, 74)</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>38 (11, 66)</t>
+          <t>34 (14, 61)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1802,22 +1802,22 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>110 (63, 170)</t>
+          <t>90 (49, 141)</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>83 (51, 147)</t>
+          <t>69 (30, 118)</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>0 (0, 2)</t>
+          <t>0 (0, 1)</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>0 (0, 2)</t>
+          <t>0 (0, 1)</t>
         </is>
       </c>
     </row>
@@ -1844,22 +1844,22 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>399 (162, 1036)</t>
+          <t>412 (174, 992)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>30 (7, 63)</t>
+          <t>23 (3, 65)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>41 (16, 76)</t>
+          <t>37 (16, 70)</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>35 (10, 61)</t>
+          <t>31 (12, 58)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1879,22 +1879,22 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>109 (63, 168)</t>
+          <t>91 (48, 140)</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>83 (52, 146)</t>
+          <t>68 (30, 117)</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>0 (0, 2)</t>
+          <t>0 (0, 1)</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>0 (0, 2)</t>
+          <t>0 (0, 1)</t>
         </is>
       </c>
     </row>
@@ -1921,22 +1921,22 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>369 (129, 1019)</t>
+          <t>380 (141, 999)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>22 (4, 58)</t>
+          <t>17 (3, 55)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>37 (12, 72)</t>
+          <t>36 (15, 64)</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>32 (7, 59)</t>
+          <t>29 (9, 55)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1956,22 +1956,22 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>109 (64, 170)</t>
+          <t>91 (44, 138)</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>85 (50, 144)</t>
+          <t>66 (29, 117)</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>0 (0, 2)</t>
+          <t>0 (0, 1)</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>0 (0, 2)</t>
+          <t>0 (0, 1)</t>
         </is>
       </c>
     </row>
@@ -1998,22 +1998,22 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>346 (107, 1016)</t>
+          <t>353 (124, 987)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>16 (4, 55)</t>
+          <t>10 (3, 47)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>35 (10, 65)</t>
+          <t>33 (11, 61)</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>28 (5, 56)</t>
+          <t>24 (7, 54)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2033,22 +2033,22 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>106 (66, 170)</t>
+          <t>87 (41, 132)</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>85 (49, 144)</t>
+          <t>66 (29, 114)</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>0 (0, 2)</t>
+          <t>0 (0, 1)</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>0 (0, 2)</t>
+          <t>0 (0, 1)</t>
         </is>
       </c>
     </row>
@@ -2075,22 +2075,22 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>319 (89, 1001)</t>
+          <t>328 (111, 977)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>13 (2, 50)</t>
+          <t>8 (2, 45)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>32 (7, 63)</t>
+          <t>29 (8, 61)</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>24 (4, 53)</t>
+          <t>21 (4, 51)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2105,27 +2105,27 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>0 (0, 2)</t>
+          <t>0 (0, 3)</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>105 (66, 170)</t>
+          <t>83 (40, 131)</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>86 (47, 144)</t>
+          <t>66 (26, 114)</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>0 (0, 2)</t>
+          <t>0 (0, 1)</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>0 (0, 2)</t>
+          <t>0 (0, 1)</t>
         </is>
       </c>
     </row>
@@ -2152,22 +2152,22 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>294 (77, 986)</t>
+          <t>299 (91, 959)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>9 (2, 49)</t>
+          <t>7 (1, 41)</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>26 (5, 59)</t>
+          <t>22 (7, 57)</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>19 (2, 51)</t>
+          <t>18 (2, 49)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2182,27 +2182,27 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>0 (0, 2)</t>
+          <t>0 (0, 3)</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>104 (65, 170)</t>
+          <t>81 (39, 128)</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>85 (47, 142)</t>
+          <t>64 (25, 111)</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>0 (0, 2)</t>
+          <t>0 (0, 1)</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>0 (0, 2)</t>
+          <t>0 (0, 1)</t>
         </is>
       </c>
     </row>
@@ -2229,22 +2229,22 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>275 (64, 976)</t>
+          <t>284 (77, 962)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>8 (2, 47)</t>
+          <t>5 (1, 37)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>24 (4, 56)</t>
+          <t>21 (4, 55)</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>14 (0, 49)</t>
+          <t>15 (1, 45)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2259,27 +2259,27 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
+          <t>0 (0, 3)</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>80 (39, 128)</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>63 (25, 110)</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
           <t>0 (0, 1)</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>100 (65, 170)</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>85 (45, 140)</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>0 (0, 2)</t>
-        </is>
-      </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>0 (0, 2)</t>
+          <t>0 (0, 1)</t>
         </is>
       </c>
     </row>
@@ -2306,22 +2306,22 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>255 (45, 964)</t>
+          <t>262 (54, 949)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>7 (1, 46)</t>
+          <t>4 (0, 34)</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>18 (1, 52)</t>
+          <t>16 (1, 51)</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>9 (0, 48)</t>
+          <t>12 (0, 43)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2336,27 +2336,27 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
+          <t>0 (0, 2)</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>79 (39, 125)</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>62 (24, 107)</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
           <t>0 (0, 1)</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>98 (66, 171)</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>85 (45, 143)</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>0 (0, 2)</t>
-        </is>
-      </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>0 (0, 2)</t>
+          <t>0 (0, 1)</t>
         </is>
       </c>
     </row>
@@ -2383,22 +2383,22 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>235 (37, 957)</t>
+          <t>242 (45, 935)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>5 (0, 48)</t>
+          <t>4 (0, 33)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>12 (0, 52)</t>
+          <t>14 (0, 50)</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>7 (0, 45)</t>
+          <t>8 (0, 42)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2413,27 +2413,27 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>0 (0, 0)</t>
+          <t>0 (0, 2)</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>94 (65, 170)</t>
+          <t>74 (37, 123)</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>83 (43, 139)</t>
+          <t>60 (22, 100)</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>0 (0, 2)</t>
+          <t>0 (0, 1)</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>0 (0, 2)</t>
+          <t>0 (0, 1)</t>
         </is>
       </c>
     </row>
@@ -2460,22 +2460,22 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>215 (28, 949)</t>
+          <t>224 (38, 923)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>5 (0, 46)</t>
+          <t>2 (0, 32)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>9 (0, 50)</t>
+          <t>11 (0, 48)</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>5 (0, 44)</t>
+          <t>7 (0, 40)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2490,27 +2490,27 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>0 (0, 0)</t>
+          <t>0 (0, 1)</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>93 (63, 163)</t>
+          <t>74 (35, 125)</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>82 (42, 137)</t>
+          <t>58 (22, 99)</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>0 (0, 2)</t>
+          <t>0 (0, 1)</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>0 (0, 2)</t>
+          <t>0 (0, 0)</t>
         </is>
       </c>
     </row>
@@ -2537,22 +2537,22 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>192 (22, 936)</t>
+          <t>208 (32, 928)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>5 (0, 44)</t>
+          <t>2 (0, 30)</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>7 (0, 48)</t>
+          <t>8 (0, 48)</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>4 (0, 41)</t>
+          <t>5 (0, 40)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2567,27 +2567,27 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>0 (0, 0)</t>
+          <t>0 (0, 1)</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>93 (61, 161)</t>
+          <t>73 (34, 122)</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>82 (40, 134)</t>
+          <t>58 (22, 100)</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>0 (0, 2)</t>
+          <t>0 (0, 1)</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>0 (0, 2)</t>
+          <t>0 (0, 0)</t>
         </is>
       </c>
     </row>
@@ -2689,42 +2689,42 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1513 (1025, 2233)</t>
+          <t>1570 (1056, 2345)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1277 (787, 1964)</t>
+          <t>1322 (806, 2066)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>223 (136, 340)</t>
+          <t>236 (148, 361)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>180 (106, 254)</t>
+          <t>198 (116, 274)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1513 (1025, 2233)</t>
+          <t>1570 (1056, 2345)</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1277 (787, 1964)</t>
+          <t>1322 (806, 2066)</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>223 (136, 340)</t>
+          <t>236 (148, 361)</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>180 (106, 254)</t>
+          <t>198 (116, 274)</t>
         </is>
       </c>
     </row>
@@ -2751,42 +2751,42 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1464 (976, 2164)</t>
+          <t>1512 (1011, 2273)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1229 (752, 1915)</t>
+          <t>1273 (767, 1992)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>216 (128, 329)</t>
+          <t>227 (142, 348)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>176 (102, 247)</t>
+          <t>192 (108, 266)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1464 (976, 2164)</t>
+          <t>1512 (1011, 2273)</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>1229 (752, 1915)</t>
+          <t>1273 (767, 1992)</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>216 (128, 329)</t>
+          <t>227 (142, 348)</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>176 (102, 247)</t>
+          <t>192 (108, 266)</t>
         </is>
       </c>
     </row>
@@ -2813,42 +2813,42 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1413 (939, 2104)</t>
+          <t>1451 (968, 2189)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1191 (722, 1855)</t>
+          <t>1219 (733, 1928)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>209 (121, 311)</t>
+          <t>222 (134, 340)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>170 (97, 239)</t>
+          <t>179 (103, 257)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1413 (939, 2104)</t>
+          <t>1451 (968, 2189)</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>1191 (722, 1855)</t>
+          <t>1219 (733, 1928)</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>209 (121, 311)</t>
+          <t>222 (134, 340)</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>170 (97, 239)</t>
+          <t>179 (103, 257)</t>
         </is>
       </c>
     </row>
@@ -2875,42 +2875,42 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1357 (893, 2038)</t>
+          <t>1394 (918, 2117)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1139 (680, 1790)</t>
+          <t>1165 (684, 1850)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>203 (116, 302)</t>
+          <t>215 (129, 329)</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>162 (89, 233)</t>
+          <t>169 (98, 247)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1357 (893, 2038)</t>
+          <t>1394 (918, 2117)</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>1139 (680, 1790)</t>
+          <t>1165 (684, 1850)</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>203 (116, 302)</t>
+          <t>215 (129, 329)</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>162 (89, 233)</t>
+          <t>169 (98, 247)</t>
         </is>
       </c>
     </row>
@@ -2937,42 +2937,42 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1307 (853, 1973)</t>
+          <t>1339 (868, 2036)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1091 (650, 1740)</t>
+          <t>1111 (657, 1789)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>196 (110, 294)</t>
+          <t>210 (124, 317)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>152 (82, 224)</t>
+          <t>165 (87, 241)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1307 (853, 1973)</t>
+          <t>1339 (868, 2036)</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>1091 (650, 1740)</t>
+          <t>1111 (657, 1789)</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>196 (110, 294)</t>
+          <t>210 (124, 317)</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>152 (82, 224)</t>
+          <t>165 (87, 241)</t>
         </is>
       </c>
     </row>
@@ -2999,42 +2999,42 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1246 (820, 1907)</t>
+          <t>1274 (826, 1961)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1044 (625, 1677)</t>
+          <t>1056 (619, 1725)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>187 (104, 282)</t>
+          <t>203 (113, 305)</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>148 (78, 219)</t>
+          <t>160 (84, 233)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1246 (820, 1907)</t>
+          <t>1274 (826, 1961)</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>1044 (625, 1677)</t>
+          <t>1056 (619, 1725)</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>187 (104, 282)</t>
+          <t>203 (113, 305)</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>148 (78, 219)</t>
+          <t>160 (84, 233)</t>
         </is>
       </c>
     </row>
@@ -3061,42 +3061,42 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1205 (780, 1849)</t>
+          <t>1220 (784, 1893)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1004 (585, 1625)</t>
+          <t>1009 (582, 1657)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>179 (96, 276)</t>
+          <t>192 (103, 292)</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>140 (75, 212)</t>
+          <t>149 (83, 226)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1205 (780, 1849)</t>
+          <t>1220 (784, 1893)</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>1004 (585, 1625)</t>
+          <t>1009 (582, 1657)</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>179 (96, 276)</t>
+          <t>192 (103, 292)</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>140 (75, 212)</t>
+          <t>149 (83, 226)</t>
         </is>
       </c>
     </row>
@@ -3123,42 +3123,42 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1153 (738, 1787)</t>
+          <t>1165 (739, 1817)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>965 (559, 1568)</t>
+          <t>961 (551, 1594)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>170 (87, 268)</t>
+          <t>181 (96, 284)</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>133 (70, 204)</t>
+          <t>139 (80, 214)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1153 (738, 1787)</t>
+          <t>1165 (739, 1817)</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>965 (559, 1568)</t>
+          <t>961 (551, 1594)</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>170 (87, 268)</t>
+          <t>181 (96, 284)</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>133 (70, 204)</t>
+          <t>139 (80, 214)</t>
         </is>
       </c>
     </row>
@@ -3185,42 +3185,42 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1094 (709, 1719)</t>
+          <t>1106 (701, 1751)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>920 (529, 1519)</t>
+          <t>908 (511, 1522)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>165 (84, 261)</t>
+          <t>174 (89, 275)</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>125 (69, 194)</t>
+          <t>133 (74, 202)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1094 (709, 1719)</t>
+          <t>1106 (701, 1751)</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>920 (529, 1519)</t>
+          <t>908 (511, 1522)</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>165 (84, 261)</t>
+          <t>174 (89, 275)</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>125 (69, 194)</t>
+          <t>133 (74, 202)</t>
         </is>
       </c>
     </row>
@@ -3247,42 +3247,42 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1039 (663, 1668)</t>
+          <t>1046 (651, 1678)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>875 (495, 1459)</t>
+          <t>866 (483, 1475)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>158 (80, 254)</t>
+          <t>169 (87, 261)</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>110 (68, 184)</t>
+          <t>123 (67, 194)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1039 (663, 1668)</t>
+          <t>1046 (651, 1678)</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>875 (495, 1459)</t>
+          <t>866 (483, 1475)</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>158 (80, 254)</t>
+          <t>169 (87, 261)</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>110 (68, 184)</t>
+          <t>123 (67, 194)</t>
         </is>
       </c>
     </row>
@@ -3309,42 +3309,42 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>988 (616, 1606)</t>
+          <t>985 (605, 1615)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>839 (463, 1415)</t>
+          <t>821 (446, 1419)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>149 (74, 240)</t>
+          <t>160 (84, 256)</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>99 (59, 178)</t>
+          <t>106 (60, 190)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>988 (616, 1606)</t>
+          <t>985 (605, 1615)</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>839 (463, 1415)</t>
+          <t>821 (446, 1419)</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>149 (74, 240)</t>
+          <t>160 (84, 256)</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>99 (59, 178)</t>
+          <t>106 (60, 190)</t>
         </is>
       </c>
     </row>
@@ -3371,42 +3371,42 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>940 (575, 1546)</t>
+          <t>931 (559, 1548)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>783 (433, 1367)</t>
+          <t>773 (410, 1362)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>142 (70, 231)</t>
+          <t>153 (77, 243)</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>95 (53, 171)</t>
+          <t>97 (56, 177)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>940 (575, 1546)</t>
+          <t>931 (559, 1548)</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>783 (433, 1367)</t>
+          <t>773 (410, 1362)</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>142 (70, 231)</t>
+          <t>153 (77, 243)</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>95 (53, 171)</t>
+          <t>97 (56, 177)</t>
         </is>
       </c>
     </row>
@@ -3433,42 +3433,42 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>902 (537, 1489)</t>
+          <t>874 (521, 1474)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>745 (411, 1317)</t>
+          <t>724 (383, 1304)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>131 (64, 225)</t>
+          <t>139 (67, 234)</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>88 (50, 164)</t>
+          <t>94 (51, 167)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>902 (537, 1489)</t>
+          <t>874 (521, 1474)</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>745 (411, 1317)</t>
+          <t>724 (383, 1304)</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>131 (64, 225)</t>
+          <t>139 (67, 234)</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>88 (50, 164)</t>
+          <t>94 (51, 167)</t>
         </is>
       </c>
     </row>
@@ -3495,42 +3495,42 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>840 (504, 1437)</t>
+          <t>828 (483, 1418)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>710 (367, 1270)</t>
+          <t>678 (345, 1245)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>117 (60, 213)</t>
+          <t>127 (59, 221)</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>81 (46, 154)</t>
+          <t>90 (43, 162)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>840 (504, 1437)</t>
+          <t>828 (483, 1418)</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>710 (367, 1270)</t>
+          <t>678 (345, 1245)</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>117 (60, 213)</t>
+          <t>127 (59, 221)</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>81 (46, 154)</t>
+          <t>90 (43, 162)</t>
         </is>
       </c>
     </row>
@@ -3557,42 +3557,42 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2661 (1798, 3898)</t>
+          <t>2111 (1428, 3114)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2299 (1449, 3487)</t>
+          <t>1799 (1127, 2750)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>338 (226, 515)</t>
+          <t>298 (186, 439)</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>279 (185, 411)</t>
+          <t>238 (157, 345)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2661 (1798, 3898)</t>
+          <t>2111 (1428, 3114)</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>2299 (1449, 3487)</t>
+          <t>1799 (1127, 2750)</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>338 (226, 515)</t>
+          <t>298 (186, 439)</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>279 (185, 411)</t>
+          <t>238 (157, 345)</t>
         </is>
       </c>
     </row>
@@ -3619,42 +3619,42 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2604 (1756, 3836)</t>
+          <t>2062 (1390, 3051)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2242 (1405, 3435)</t>
+          <t>1753 (1090, 2703)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>331 (221, 507)</t>
+          <t>285 (183, 431)</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>275 (182, 405)</t>
+          <t>231 (151, 338)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2604 (1756, 3836)</t>
+          <t>2062 (1390, 3051)</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2242 (1405, 3435)</t>
+          <t>1753 (1090, 2703)</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>331 (221, 507)</t>
+          <t>285 (183, 431)</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>275 (182, 405)</t>
+          <t>231 (151, 338)</t>
         </is>
       </c>
     </row>
@@ -3681,42 +3681,42 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2541 (1693, 3774)</t>
+          <t>2013 (1344, 2999)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2193 (1361, 3377)</t>
+          <t>1709 (1063, 2656)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>323 (213, 498)</t>
+          <t>281 (179, 422)</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>269 (178, 402)</t>
+          <t>222 (146, 329)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2541 (1693, 3774)</t>
+          <t>2013 (1344, 2999)</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2193 (1361, 3377)</t>
+          <t>1709 (1063, 2656)</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>323 (213, 498)</t>
+          <t>281 (179, 422)</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>269 (178, 402)</t>
+          <t>222 (146, 329)</t>
         </is>
       </c>
     </row>
@@ -3743,42 +3743,42 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2473 (1647, 3710)</t>
+          <t>1961 (1298, 2940)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2131 (1313, 3316)</t>
+          <t>1665 (1029, 2607)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>319 (204, 488)</t>
+          <t>272 (172, 417)</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>263 (174, 394)</t>
+          <t>214 (141, 322)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2473 (1647, 3710)</t>
+          <t>1961 (1298, 2940)</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>2131 (1313, 3316)</t>
+          <t>1665 (1029, 2607)</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>319 (204, 488)</t>
+          <t>272 (172, 417)</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>263 (174, 394)</t>
+          <t>214 (141, 322)</t>
         </is>
       </c>
     </row>
@@ -3805,42 +3805,42 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2407 (1576, 3641)</t>
+          <t>1900 (1253, 2881)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2069 (1258, 3261)</t>
+          <t>1624 (989, 2566)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>313 (200, 478)</t>
+          <t>261 (164, 406)</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>257 (165, 384)</t>
+          <t>209 (131, 313)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2407 (1576, 3641)</t>
+          <t>1900 (1253, 2881)</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>2069 (1258, 3261)</t>
+          <t>1624 (989, 2566)</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>313 (200, 478)</t>
+          <t>261 (164, 406)</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>257 (165, 384)</t>
+          <t>209 (131, 313)</t>
         </is>
       </c>
     </row>
@@ -3867,42 +3867,42 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2332 (1520, 3573)</t>
+          <t>1847 (1207, 2825)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2004 (1208, 3199)</t>
+          <t>1569 (949, 2506)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>304 (194, 468)</t>
+          <t>257 (155, 399)</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>249 (156, 377)</t>
+          <t>201 (125, 304)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2332 (1520, 3573)</t>
+          <t>1847 (1207, 2825)</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2004 (1208, 3199)</t>
+          <t>1569 (949, 2506)</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>304 (194, 468)</t>
+          <t>257 (155, 399)</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>249 (156, 377)</t>
+          <t>201 (125, 304)</t>
         </is>
       </c>
     </row>
@@ -3929,42 +3929,42 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2260 (1445, 3489)</t>
+          <t>1791 (1171, 2769)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1933 (1148, 3125)</t>
+          <t>1518 (916, 2451)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>297 (188, 459)</t>
+          <t>244 (149, 385)</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>243 (147, 367)</t>
+          <t>196 (119, 295)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2260 (1445, 3489)</t>
+          <t>1791 (1171, 2769)</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>1933 (1148, 3125)</t>
+          <t>1518 (916, 2451)</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>297 (188, 459)</t>
+          <t>244 (149, 385)</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>243 (147, 367)</t>
+          <t>196 (119, 295)</t>
         </is>
       </c>
     </row>
@@ -3991,42 +3991,42 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2173 (1381, 3426)</t>
+          <t>1734 (1118, 2707)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1868 (1091, 3057)</t>
+          <t>1471 (880, 2403)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>284 (181, 450)</t>
+          <t>238 (142, 375)</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>232 (139, 357)</t>
+          <t>188 (114, 285)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2173 (1381, 3426)</t>
+          <t>1734 (1118, 2707)</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>1868 (1091, 3057)</t>
+          <t>1471 (880, 2403)</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>284 (181, 450)</t>
+          <t>238 (142, 375)</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>232 (139, 357)</t>
+          <t>188 (114, 285)</t>
         </is>
       </c>
     </row>
@@ -4053,42 +4053,42 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2088 (1310, 3332)</t>
+          <t>1667 (1070, 2638)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>1792 (1024, 2981)</t>
+          <t>1422 (837, 2350)</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>272 (174, 436)</t>
+          <t>225 (134, 370)</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>220 (130, 339)</t>
+          <t>181 (111, 274)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2088 (1310, 3332)</t>
+          <t>1667 (1070, 2638)</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>1792 (1024, 2981)</t>
+          <t>1422 (837, 2350)</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>272 (174, 436)</t>
+          <t>225 (134, 370)</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>220 (130, 339)</t>
+          <t>181 (111, 274)</t>
         </is>
       </c>
     </row>
@@ -4115,42 +4115,42 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1999 (1235, 3246)</t>
+          <t>1611 (1027, 2577)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1713 (965, 2905)</t>
+          <t>1369 (799, 2295)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>266 (158, 422)</t>
+          <t>221 (130, 365)</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>213 (123, 329)</t>
+          <t>172 (103, 262)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>1999 (1235, 3246)</t>
+          <t>1611 (1027, 2577)</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>1713 (965, 2905)</t>
+          <t>1369 (799, 2295)</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>266 (158, 422)</t>
+          <t>221 (130, 365)</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>213 (123, 329)</t>
+          <t>172 (103, 262)</t>
         </is>
       </c>
     </row>
@@ -4177,42 +4177,42 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1915 (1160, 3160)</t>
+          <t>1544 (972, 2512)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>1631 (906, 2831)</t>
+          <t>1317 (759, 2237)</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>250 (147, 409)</t>
+          <t>209 (125, 353)</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>203 (116, 320)</t>
+          <t>159 (97, 255)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>1915 (1160, 3160)</t>
+          <t>1544 (972, 2512)</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>1631 (906, 2831)</t>
+          <t>1317 (759, 2237)</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>250 (147, 409)</t>
+          <t>209 (125, 353)</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>203 (116, 320)</t>
+          <t>159 (97, 255)</t>
         </is>
       </c>
     </row>
@@ -4239,42 +4239,42 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1824 (1090, 3059)</t>
+          <t>1481 (918, 2453)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1560 (846, 2747)</t>
+          <t>1265 (717, 2184)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>241 (134, 401)</t>
+          <t>204 (115, 341)</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>196 (107, 312)</t>
+          <t>150 (87, 246)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>1824 (1090, 3059)</t>
+          <t>1481 (918, 2453)</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>1560 (846, 2747)</t>
+          <t>1265 (717, 2184)</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>241 (134, 401)</t>
+          <t>204 (115, 341)</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>196 (107, 312)</t>
+          <t>150 (87, 246)</t>
         </is>
       </c>
     </row>
@@ -4301,42 +4301,42 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1726 (1018, 2965)</t>
+          <t>1414 (864, 2388)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1475 (794, 2663)</t>
+          <t>1206 (680, 2121)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>228 (127, 394)</t>
+          <t>192 (108, 328)</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>182 (99, 297)</t>
+          <t>142 (82, 236)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>1726 (1018, 2965)</t>
+          <t>1414 (864, 2388)</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>1475 (794, 2663)</t>
+          <t>1206 (680, 2121)</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>228 (127, 394)</t>
+          <t>192 (108, 328)</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>182 (99, 297)</t>
+          <t>142 (82, 236)</t>
         </is>
       </c>
     </row>
@@ -4363,42 +4363,42 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1635 (937, 2869)</t>
+          <t>1357 (809, 2313)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>1391 (728, 2565)</t>
+          <t>1148 (628, 2066)</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>216 (113, 380)</t>
+          <t>180 (99, 318)</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>168 (90, 280)</t>
+          <t>138 (79, 225)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>1635 (937, 2869)</t>
+          <t>1357 (809, 2313)</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>1391 (728, 2565)</t>
+          <t>1148 (628, 2066)</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>216 (113, 380)</t>
+          <t>180 (99, 318)</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>168 (90, 280)</t>
+          <t>138 (79, 225)</t>
         </is>
       </c>
     </row>
